--- a/biology/Botanique/Frêne_de_Syrie/Frêne_de_Syrie.xlsx
+++ b/biology/Botanique/Frêne_de_Syrie/Frêne_de_Syrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_de_Syrie</t>
+          <t>Frêne_de_Syrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraxinus syriaca
 Le  Frêne de Syrie  (Fraxinus syriaca) Boiss. syn. (Fraxinus angustifolia) Vahl syriaca (Boiss.) Yalt. ou encore (Fraxinus oxyphylla) var. Oligophylla Boiss. est une espèce d'arbre originaire de la Syrie, de la famille des Oleaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_de_Syrie</t>
+          <t>Frêne_de_Syrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce aimant bien les endroits ensoleillés, elle s’est tout naturellement acclimatée dans les pays méditerranéens mais aussi en Iran et on la trouve même jusqu’au Turkestan. Dans ces pays on a constaté sa bonne résistance à la sécheresse et au gel.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_de_Syrie</t>
+          <t>Frêne_de_Syrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un arbre de taille moyenne à couronne dense et à feuillage caduc, poussant à une hauteur variant entre 10 et 15 m.
 Les rameaux glabres, de couleur vert olive portent en hiver des bourgeons lisses de couleur gris brun.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_de_Syrie</t>
+          <t>Frêne_de_Syrie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa très grande robustesse en fait un arbre idéal d’alignement le long des routes.
 </t>
